--- a/biology/Médecine/Clause_de_conscience/Clause_de_conscience.xlsx
+++ b/biology/Médecine/Clause_de_conscience/Clause_de_conscience.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une clause de conscience est le droit reconnu à certains professionnels, dans leur statut légal, de s'opposer à une décision ou de ne pas accomplir un acte comportant des enjeux éthiques importants.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Droit américain
-En droit américain, les clauses de conscience sont des clauses légales attachées aux lois dans certaines parties des États-Unis qui permettent aux pharmaciens, médecins ou autres prestataires de soins de santé de ne pas fournir certains services médicaux pour des raisons de religion ou de conscience. Il peut également s'agir de parents refusant des traitements particuliers pour leurs enfants[1].
+          <t>Droit américain</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En droit américain, les clauses de conscience sont des clauses légales attachées aux lois dans certaines parties des États-Unis qui permettent aux pharmaciens, médecins ou autres prestataires de soins de santé de ne pas fournir certains services médicaux pour des raisons de religion ou de conscience. Il peut également s'agir de parents refusant des traitements particuliers pour leurs enfants.
 </t>
         </is>
       </c>
